--- a/500all/speech_level/speeches_CHRG-114hhrg95176.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95176.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="407">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412552</t>
   </si>
   <si>
-    <t>Mark Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meadows. The Subcommittee on Government Operations will come to order.    Without objection, the chair is authorized to declare a recess at any time.    I ask unanimous consent that our colleagues Mr. Mica and Mr. Palmer be allowed to fully participate in today's hearing.    Without objection, so ordered.    I now recognize Mr. Connolly, the ranking member of the Subcommittee on Government Operations, for his opening Statement.    I will let you go first, Mr. Connolly.</t>
   </si>
   <si>
     <t>412272</t>
   </si>
   <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. Thank you, Mr. Chairman.    And thanks for calling this hearing on a day when we're out of session.    For over a century, the railway industry has supported thousands of well-paying jobs across our Nation, including more than 16,000 railroad workers and retirees in the Commonwealth of Virginia. We all ought to be proud of this American success story.    The Railroad Retirement Board was created in the 1930's to administer retirement, unemployment, sickness, and survivor benefit programs for railroad workers and their families. In that era, railroad workers had a well developed pension plan but sought to expand it to a national retirement system because Social Security was still in the planning stages. The results of those workers' efforts and legislation is what we see today, one of the largest pension funds, worth more than $26 billion last year. The most impressive aspect of this retirement plan is that it is solely funded by fees collected from railroad workers and rail employees. In fact, railroad workers have historically had more money deducted from their paychecks to pay for their retirement than most individuals contribute to Social Security for theirs.    The bottom line is that the RRB is responsible for administering a vital safety net that Is only funded by and only benefits America's railroad workers and families who are not eligible to claim Social Security benefits. Today we're here to discuss oversight of disability benefits programs provided by the railroad retirement system. Concerns have legitimately been raised about the vulnerability for fraud in those programs. This is an important discussion because it's against the background of the Long Island Rail Road retiree fraud, in which the RRB and its inspector general initially failed to detect widespread false claims for occupational disability benefits.    Fortunately, a team consisting of the Department of Justice and the OIG was eventually able to uncover the fraud and bring those responsible to justice. Let's be clear, all stakeholders abhor and condemn in the strongest possible terms the massive fraud perpetrated by LIRR retirees, doctors, and disability facilitators. In fact, railroad workers and their families were likely the most outraged about it since it's their money that solely funds the RRB-administered pension fund, and, ultimately, any theft from that fund comes out of their pockets. Indeed, no group in America has a greater incentive to enhance RRB's ability to detect and prevent disability fraud than our Nation's railroad workers since it's their money, and theirs alone, which will rise to compensate for any theft from the fund.    In 2014, GAO found that the RRB is at risk for making improper payments to individuals who did not qualify for occupational disability benefits because there's no systematic way to evaluate potential fraudulent claims or prevent fraud. GAO also found that the RRB was not sufficiently committed to fraud awareness throughout the agency. GAO and the IG has produced several recommendations to improve the integrity of the disability programs. And it's important to note the RRB is implementing a set of initiatives to strengthen fraud detection and prevention pursuant to GAO recommendations.    For example, the RRB now requires independent medical exams for all disability applicants, as opposed to relying on medical evidence submitted by the applicant. The RRB is also expanding its fraud awareness training beyond its headquarters to apply to all staff. It's important we bring balance to this hearing. The vast majority of dedicated and hard-working railroad retirees who participate in disability programs are honest and deserving recipients of the earned benefits that they and other railroad workers solely funded.    Mr. Chairman, this is personal for me. My mother's side of the family were all railroad men. My grandfather made very little, didn't have much of a pension, and died prematurely because, frankly, of the toxic effects of the exhaust he was subjected to every day. My uncles and their uncles were all railroad men. And they were hard-working people who certainly didn't cheat the system. And I think they were in great company.    I just want to say that because I know from personal experience what working on the railroad can be like. And it's hard work. And it takes a lot out of the body over a number of years. And I hope we--I know you and I hope and certainly believe my colleagues will respect that fact.    As with any program, there are always unscrupulous individuals who are dishonest and seek to perpetrate fraud. And it's vital we uncover those individuals and bring them to justice. However, it would be deeply unfair to presume that the majority of participants are dishonest based on those few bad actors. Further, we must exercise caution in advancing solutions to ensure that we do not adversely impact the thousands of railroad retirees who work hard and played by the rules, like my grandfather and my uncles. For instance, while high approval rates for disability benefits may indicate a higher risk of fraud, it's an imprecise indicator. Depending on the structure of a given plan, it's also plausible that a program might feature high integrity and high approval rates.    Moving forward, Congress should provide the RRB with a fair opportunity to implement the recommendations made by the GAO and the IG and gauge how well they are working. By doing so, we can avoid punishing the majority of railroad workers who have done nothing wrong because of the transgressions of a few; protect the National Railroad Retirement Investment Trust that is funded by our Nation's hard-working railroad workers.    I look toward to the testimony of our witnesses today. And I thank the chair for his courtesy.</t>
   </si>
   <si>
@@ -79,18 +73,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Bertoni</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bertoni. Close enough.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Meadows. Okay. Bertoni, Director of Education, Workforce, and Income Security at the Government Accountability Office, also known as the GAO.    Welcome to all of you.    And, pursuant to committee rules, all witnesses will be sworn in before they testify. I'd ask that you please rise and raise your right hand.    Do you solemnly swear or affirm that the testimony you are about to give will be the truth, the whole truth, and nothing but the truth? Let the record reflect that all witnesses answered in the affirmative. And, in order to allow time for discussion, I would ask that your oral testimony be limited to 5 minutes. Your entire written Statement will be made part of the record.    I would like to go ahead and recognize our first witness, Mr. Dickman.</t>
   </si>
   <si>
-    <t>Dickman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Dickman. Thank you, Chairman Meadows, Ranking Member Connolly and members of the committee, thank you for allowing me the opportunity to speak to you here today. As an inspector general of the Railroad Retirement Board, the basic function of an inspector general is to promote economy and efficiency; prevent and detect waste, fraud, and abuse of the parent agency.    Pursuant to our 7-day letter and our continuing examination of the Railroad Retirement Board's occupational disability program starting in 2007, it has been an ongoing educational process to us as far as the programs involved by the Railroad Retirement Board. And I go into much greater detail about the problems and some of the solutions that we have presented, many different types of solutions, all the way from eliminating the Railroad Retirement Board's occupational disability program to limiting it to a 2-year program. And I would be happy to explain that later in the conference.    Drilling down to the core issue, the core issue--and these are my views alone. They are not representative of the administration or anybody else's. Unless there is a change in the culture of the Railroad Retirement Board, this culture of we're here to pay, without looking at anything else, without even--and they acknowledge it--without even using and acceding to the regulations that are in place, as far as finding out the job description, as far as doing more of an in-depth analysis of the individual's application process, and then we have also obviously made recommendations that require change in regulations or even some change by the legislature, by the Congress. But, basically, it goes to this feeling that, again, we're here to pay. And unless that culture is changed, all of the money that's going to be spent, the $3.3 million that's proposed in the Fiscal Year 2016 budget for program integrity, in my opinion, would be a total waste of money.    And, to us, the proof is in the 98 percent approval rate that continues. Other people may say 98 percent, you know, they've got--if you looked at the surface of what they have done and look at the various programs, you'd say the inspector general has to be, you know, he's an idiot because look at what we're doing here. We have these doctors that look at these people; we'll review this; we'll review that. It's all superficial. The doctors look at somebody for 20 minutes. The American Medical Association will say to do an in-depth examination, a residual functional capacity exam takes 6 to 8 hours to find out whether the person is lying or not.    The other portion that really has to change is the structure of the Board. I realize and everyone else realizes it's a function of collective bargaining between labor and the management. Those are the realities of the situation. The big-ticket items are decided by them. And, in my opinion, you know, forget about what the Chairman wants; forget about what Congress wants; it's what they want to do. Because they are a very powerful force and because, you know, the basic function of the railway and how it is intertwined in our economy, that if occupational disability is somewhat changed, there would be a nationwide rail strike. And everybody knows that.    But to give the Railroad Retirement Board an opportunity, a real opportunity for change, in my opinion, the Board structure has to be changed from this troika, where you have a rail member, management member, and a Chairman. And the Chairman is only Chairman in name only. He has no more power than anybody else. So the big ticket items are decided by rail and labor. And the Chairman just sits there, tries his best, in my opinion, is the most aggressive pushing for change. But the end result is, as I have said, we still have this 98 approval rate.    So, unless something like that is done, then I don't think that all this money that's going to be spent is really going to make any difference down the road. We could come back here 2 years from now and we'll still have a 98 percent approval rate.    I thank you for the opportunity to speak this morning. And, again, I would like to thank my staff for doing all the heavy lifting in this program and also, as far as concerning the Long Island Rail Road case, the U.S. attorney, who took on a very difficult case, and the FBI, which also helped tremendously in this matter. Thank you.</t>
   </si>
   <si>
@@ -103,9 +91,6 @@
     <t xml:space="preserve">    Mr. Meadows. So much of what we do is actually their hard work and certainly not as much ours.    But we'll go ahead and recognize Mr. Schwartz for 5 minutes.</t>
   </si>
   <si>
-    <t>Schwartz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Schwartz. Thank you. Chairman Meadows, Ranking Member Connolly, and members of the subcommittee, I'm Michael Schwartz, and I'm the Chairman of the U.S. Railroad Retirement Board. I want to thank you for this opportunity to appear today and discuss the railroad retirement disability programs. Walter Barrows, representing rail labor; Steven Anthony, representing rail employers; and I are responsible for the agency's programs and operations.    Let me begin by saying that my fellow Board members and I share in the outrage at the physician-assisted fraud perpetrated on the railroad retirement system by certain retirees at the Long Island Rail Road. We applaud the efforts of our inspector general and the U.S. Attorney's Office for the Southern District of New York in investigating and prosecuting this fraud.    The Long Island experience has helped us recognize a number of shortcomings in the disability benefit program. We have worked tirelessly to examine every step of our disability adjudication process and identify those areas that need improvement. Today, I'm pleased to report that we have made notable strides in strengthening the integrity of this program and better protecting our system from fraud. This experience has been a true catalyst for the change in the way we do business. And we are sincerely committed to effecting real and measurable improvements through the initiatives we have put in place and those we plan going forward.    This morning, I will provide the subcommittee with the summary of the significant changes we are making. These changes were crafted after careful consideration of recommendations by our inspector general and the Government Accountability Office during their respective reviews of the Board's programs. The quality and integrity of our benefit decisions are of the upmost importance to the Board and its stakeholders. The improvements we are making provide the foundation for a higher standard of disability determination. The process we are adopting is much different and more comprehensive than what was used when the Long Island Rail Road scheme surfaced.    Independent medical examinations will be required for all disability applicants with limited exceptions. And each exam will be performed by physicians who specialize in the area of the claimed impairment. Contractual positions will now be onsite at our headquarters building at least two times a week in the Disability Benefits Division to provide medical advice and support to claims examiners. Physicians are also providing more extensive training to the examiners on medical conditions and the interpretation of medical evidence. The Board is creating a quality assurance unit to assess the quality of medical evidence, accuracy in disability determinations, adherence to the established procedures, areas in need of improvement, and subject-matter appropriate for refresher training.    We have enhanced our fraud training awareness. The Board will continue to procure antifraud training from outside sources and make such training mandatory for all agency personnel. We will employ contractual medical personnel to provide refresher training for those responsible for making or reviewing disability decisions, such as claims examiners, reconsideration specialists, hearing officers, and quality assurance specialists. There will be more frequent contact with fraud-risk populations through the expanded use of continuing disability reviews for all occupational cases and mandatory periodic recertification of disability.    Senior claims examiners will review all initial disability determinations prior to the final rating. Treating physician information is already being tracked to identify any suspicious activities or patterns. And RRB forms, including a disability application, are being reviewed and revised to gather more relevant and accurate information.    Along with these improvements, in December 2013, the Board created a fraud task force that assists in implementing disability reform measures, along with other benefit-related program integrity measures. The task force has approved a number of internal modifications to procedures and forms and is driving implementation of fraud prevention and detection initiatives, many of which were recommended by the GAO and our IG. The initiatives I have outlined for you today will substantially strengthen the overall integrity of the disability program and better protect our system from fraud. Whether it's securing current vocational information and using the most accurate and specialized medical evidence and opinions when making disability determinations, providing ongoing fraud awareness training to agency employees, offering our claims examiners ready access to expert medical guidance, or establishing a much needed quality assurance unit, we are committed to real change that will ensure continued confidence in a program that has meant vital financial security to generations of our Nation's railroad workers and their families. Thank you.</t>
   </si>
   <si>
@@ -124,9 +109,6 @@
     <t>412213</t>
   </si>
   <si>
-    <t>Tim Walberg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walberg. Thank you, Mr. Chairman. It's interesting talking about flying out when we're dealing with railroads. So we'll try to fly a little lower at this point.    But thanks for having this hearing. Railroads are important to our economy. Railroads do carry things that we can't do as efficiently otherwise. And there are plenty of dedicated people, some you've mentioned from your families, involved. But that requires that we be more effective in making sure that every system works and everyone is involved in doing it the proper way.    Mr. Dickman, did the OIG recommend that the RRB attempt to recover the payments that were deemed improper after the Long Island Rail Road fraud?</t>
   </si>
   <si>
@@ -265,9 +247,6 @@
     <t>412474</t>
   </si>
   <si>
-    <t>Mick Mulvaney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mulvaney. Thank you, Mr. Chairman.    Mr. Schwartz, you just mentioned the law and that part of the situation is contributed to by the fact that the law is unusual. And it sounds like if you meet the 10-year requirements and you cannot do your specific job, you qualify, is that what you're saying?</t>
   </si>
   <si>
@@ -406,9 +385,6 @@
     <t>412661</t>
   </si>
   <si>
-    <t>Glenn Grothman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grothman. Thank you for being here today.    Just so I get it straight, the occupational disability program, what is the percent of people's pay or how much do you determine we get every month if you become eligible for this?</t>
   </si>
   <si>
@@ -601,9 +577,6 @@
     <t>400273</t>
   </si>
   <si>
-    <t>John L. Mica</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mica. Thank you.    Again, it is good to be here and also have been here because I remember I think it was back in 2008 when this was disclosed. And we had evidence of, at that time, it was over 90 percent were getting these disability approvals. Isn't that the case?</t>
   </si>
   <si>
@@ -715,9 +688,6 @@
     <t>412608</t>
   </si>
   <si>
-    <t>Gary J. Palmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Mr. Chairman.    Chairman Schwartz, on February 18 of this year, I sent you a letter, which contained 13 distinct groupings of questions. The Board responded on April 15, 2015. Do you believe that this April 15 letter was fully responsive to all of my questions?</t>
   </si>
   <si>
@@ -971,9 +941,6 @@
   </si>
   <si>
     <t>400251</t>
-  </si>
-  <si>
-    <t>Carolyn B. Maloney</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Maloney. Let me----</t>
@@ -1666,11 +1633,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1690,13 +1655,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1718,11 +1681,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1744,11 +1705,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1770,11 +1729,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1794,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1822,11 +1777,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1846,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1874,11 +1825,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1898,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1926,11 +1873,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1950,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1978,11 +1921,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2002,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2030,11 +1969,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2054,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2080,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s">
-        <v>36</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2106,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2132,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" t="s">
-        <v>36</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2158,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2184,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
         <v>35</v>
-      </c>
-      <c r="G22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2210,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2236,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s">
-        <v>36</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2262,13 +2183,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2288,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" t="s">
-        <v>36</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2314,13 +2231,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2340,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" t="s">
-        <v>36</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2366,13 +2279,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2392,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" t="s">
-        <v>36</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2418,13 +2327,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2444,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2470,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" t="s">
-        <v>36</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2498,11 +2401,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2522,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2550,11 +2449,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2574,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2600,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2626,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2652,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2678,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2704,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2730,13 +2615,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2756,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2782,13 +2663,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2808,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2834,13 +2711,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2860,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2886,13 +2759,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2912,13 +2783,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2938,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2964,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2990,13 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3016,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3042,13 +2903,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3068,13 +2927,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3094,13 +2951,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3120,13 +2975,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3146,13 +2999,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3172,13 +3023,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3198,13 +3047,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3224,13 +3071,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3252,11 +3097,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3276,13 +3119,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>82</v>
-      </c>
-      <c r="G64" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3302,13 +3143,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3328,13 +3167,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>82</v>
-      </c>
-      <c r="G66" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3354,13 +3191,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3380,13 +3215,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>82</v>
-      </c>
-      <c r="G68" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3406,13 +3239,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3432,13 +3263,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>82</v>
-      </c>
-      <c r="G70" t="s">
+        <v>76</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
         <v>83</v>
-      </c>
-      <c r="H70" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3458,13 +3287,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3484,13 +3311,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>82</v>
-      </c>
-      <c r="G72" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3510,13 +3335,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3536,13 +3359,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>82</v>
-      </c>
-      <c r="G74" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3562,13 +3383,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3588,13 +3407,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>82</v>
-      </c>
-      <c r="G76" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3614,13 +3431,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3640,13 +3455,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>82</v>
-      </c>
-      <c r="G78" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3666,13 +3479,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3692,13 +3503,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>82</v>
-      </c>
-      <c r="G80" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3718,13 +3527,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3744,13 +3551,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>82</v>
-      </c>
-      <c r="G82" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3770,13 +3575,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3796,13 +3599,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>82</v>
-      </c>
-      <c r="G84" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3822,13 +3623,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3848,13 +3647,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>82</v>
-      </c>
-      <c r="G86" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3874,13 +3671,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3900,13 +3695,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>82</v>
-      </c>
-      <c r="G88" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3926,13 +3719,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>20</v>
-      </c>
-      <c r="G89" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3952,13 +3743,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>82</v>
-      </c>
-      <c r="G90" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3978,13 +3767,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4004,13 +3791,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>82</v>
-      </c>
-      <c r="G92" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4030,13 +3815,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4056,13 +3839,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>82</v>
-      </c>
-      <c r="G94" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4082,13 +3863,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
-      </c>
-      <c r="G95" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4108,13 +3887,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>82</v>
-      </c>
-      <c r="G96" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4134,13 +3911,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
-      </c>
-      <c r="G97" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4160,13 +3935,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>82</v>
-      </c>
-      <c r="G98" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4186,13 +3959,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>20</v>
-      </c>
-      <c r="G99" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4212,13 +3983,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>82</v>
-      </c>
-      <c r="G100" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4238,13 +4007,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>20</v>
-      </c>
-      <c r="G101" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4264,13 +4031,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>82</v>
-      </c>
-      <c r="G102" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4290,13 +4055,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4316,13 +4079,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>82</v>
-      </c>
-      <c r="G104" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4342,13 +4103,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4368,13 +4127,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>82</v>
-      </c>
-      <c r="G106" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4394,13 +4151,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
-      </c>
-      <c r="G107" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4420,13 +4175,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>82</v>
-      </c>
-      <c r="G108" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4448,11 +4201,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4472,13 +4223,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>129</v>
-      </c>
-      <c r="G110" t="s">
-        <v>130</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4498,13 +4247,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4524,13 +4271,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>129</v>
-      </c>
-      <c r="G112" t="s">
-        <v>130</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4550,13 +4295,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>20</v>
-      </c>
-      <c r="G113" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4576,13 +4319,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>129</v>
-      </c>
-      <c r="G114" t="s">
-        <v>130</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4602,13 +4343,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>20</v>
-      </c>
-      <c r="G115" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4628,13 +4367,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
+        <v>122</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
         <v>129</v>
-      </c>
-      <c r="G116" t="s">
-        <v>130</v>
-      </c>
-      <c r="H116" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4654,13 +4391,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>20</v>
-      </c>
-      <c r="G117" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4680,13 +4415,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>129</v>
-      </c>
-      <c r="G118" t="s">
-        <v>130</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4706,13 +4439,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>20</v>
-      </c>
-      <c r="G119" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4732,13 +4463,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>129</v>
-      </c>
-      <c r="G120" t="s">
-        <v>130</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4758,13 +4487,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4784,13 +4511,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>129</v>
-      </c>
-      <c r="G122" t="s">
-        <v>130</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4810,13 +4535,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4836,13 +4559,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>129</v>
-      </c>
-      <c r="G124" t="s">
-        <v>130</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4862,13 +4583,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
-      </c>
-      <c r="G125" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4888,13 +4607,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>129</v>
-      </c>
-      <c r="G126" t="s">
-        <v>130</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4914,13 +4631,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>20</v>
-      </c>
-      <c r="G127" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4940,13 +4655,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>129</v>
-      </c>
-      <c r="G128" t="s">
-        <v>130</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4966,13 +4679,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>20</v>
-      </c>
-      <c r="G129" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4992,13 +4703,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>129</v>
-      </c>
-      <c r="G130" t="s">
-        <v>130</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5018,13 +4727,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5044,13 +4751,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>129</v>
-      </c>
-      <c r="G132" t="s">
-        <v>130</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5070,13 +4775,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5096,13 +4799,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>129</v>
-      </c>
-      <c r="G134" t="s">
-        <v>130</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5122,13 +4823,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5148,13 +4847,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>129</v>
-      </c>
-      <c r="G136" t="s">
-        <v>130</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5174,13 +4871,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>20</v>
-      </c>
-      <c r="G137" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5200,13 +4895,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>129</v>
-      </c>
-      <c r="G138" t="s">
-        <v>130</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5226,13 +4919,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>20</v>
-      </c>
-      <c r="G139" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5252,13 +4943,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>129</v>
-      </c>
-      <c r="G140" t="s">
-        <v>130</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5278,13 +4967,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>20</v>
-      </c>
-      <c r="G141" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5304,13 +4991,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>129</v>
-      </c>
-      <c r="G142" t="s">
-        <v>130</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5330,13 +5015,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>20</v>
-      </c>
-      <c r="G143" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5356,13 +5039,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>129</v>
-      </c>
-      <c r="G144" t="s">
-        <v>130</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5382,13 +5063,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>20</v>
-      </c>
-      <c r="G145" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5408,13 +5087,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>129</v>
-      </c>
-      <c r="G146" t="s">
-        <v>130</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5434,13 +5111,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>20</v>
-      </c>
-      <c r="G147" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5462,11 +5137,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5486,13 +5159,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>20</v>
-      </c>
-      <c r="G149" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5514,11 +5185,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5538,13 +5207,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>20</v>
-      </c>
-      <c r="G151" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5566,11 +5233,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>12</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5590,13 +5255,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>20</v>
-      </c>
-      <c r="G153" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5618,11 +5281,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>12</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5642,13 +5303,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>20</v>
-      </c>
-      <c r="G155" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5670,11 +5329,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5694,13 +5351,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>20</v>
-      </c>
-      <c r="G157" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5722,11 +5377,9 @@
       <c r="F158" t="s">
         <v>11</v>
       </c>
-      <c r="G158" t="s">
-        <v>12</v>
-      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5746,13 +5399,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>20</v>
-      </c>
-      <c r="G159" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5774,11 +5425,9 @@
       <c r="F160" t="s">
         <v>11</v>
       </c>
-      <c r="G160" t="s">
-        <v>12</v>
-      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5798,13 +5447,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>20</v>
-      </c>
-      <c r="G161" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5824,13 +5471,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>129</v>
-      </c>
-      <c r="G162" t="s">
-        <v>130</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5850,13 +5495,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>20</v>
-      </c>
-      <c r="G163" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5876,13 +5519,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>82</v>
-      </c>
-      <c r="G164" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5902,13 +5543,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>129</v>
-      </c>
-      <c r="G165" t="s">
-        <v>130</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5928,13 +5567,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>82</v>
-      </c>
-      <c r="G166" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5954,13 +5591,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>20</v>
-      </c>
-      <c r="G167" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5980,13 +5615,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>82</v>
-      </c>
-      <c r="G168" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6006,13 +5639,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>20</v>
-      </c>
-      <c r="G169" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6032,13 +5663,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>82</v>
-      </c>
-      <c r="G170" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6060,11 +5689,9 @@
       <c r="F171" t="s">
         <v>11</v>
       </c>
-      <c r="G171" t="s">
-        <v>12</v>
-      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6084,13 +5711,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>20</v>
-      </c>
-      <c r="G172" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6110,13 +5735,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>82</v>
-      </c>
-      <c r="G173" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6136,13 +5759,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>20</v>
-      </c>
-      <c r="G174" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6162,13 +5783,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>82</v>
-      </c>
-      <c r="G175" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6190,11 +5809,9 @@
       <c r="F176" t="s">
         <v>11</v>
       </c>
-      <c r="G176" t="s">
-        <v>12</v>
-      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6214,13 +5831,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>194</v>
-      </c>
-      <c r="G177" t="s">
-        <v>195</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6240,13 +5855,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>20</v>
-      </c>
-      <c r="G178" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6266,13 +5879,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>194</v>
-      </c>
-      <c r="G179" t="s">
-        <v>195</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6292,13 +5903,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>20</v>
-      </c>
-      <c r="G180" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6318,13 +5927,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>194</v>
-      </c>
-      <c r="G181" t="s">
-        <v>195</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6344,13 +5951,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>20</v>
-      </c>
-      <c r="G182" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6370,13 +5975,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>194</v>
-      </c>
-      <c r="G183" t="s">
-        <v>195</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6396,13 +5999,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>20</v>
-      </c>
-      <c r="G184" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6422,13 +6023,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
+        <v>186</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
         <v>194</v>
-      </c>
-      <c r="G185" t="s">
-        <v>195</v>
-      </c>
-      <c r="H185" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6448,13 +6047,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>20</v>
-      </c>
-      <c r="G186" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6474,13 +6071,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>194</v>
-      </c>
-      <c r="G187" t="s">
-        <v>195</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6500,13 +6095,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>20</v>
-      </c>
-      <c r="G188" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6526,13 +6119,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>194</v>
-      </c>
-      <c r="G189" t="s">
-        <v>195</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6552,13 +6143,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>20</v>
-      </c>
-      <c r="G190" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6578,13 +6167,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>194</v>
-      </c>
-      <c r="G191" t="s">
-        <v>195</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6604,13 +6191,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>20</v>
-      </c>
-      <c r="G192" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6630,13 +6215,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>194</v>
-      </c>
-      <c r="G193" t="s">
-        <v>195</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6656,13 +6239,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>20</v>
-      </c>
-      <c r="G194" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6682,13 +6263,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>194</v>
-      </c>
-      <c r="G195" t="s">
-        <v>195</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6708,13 +6287,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>20</v>
-      </c>
-      <c r="G196" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6734,13 +6311,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>194</v>
-      </c>
-      <c r="G197" t="s">
-        <v>195</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6760,13 +6335,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>20</v>
-      </c>
-      <c r="G198" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6786,13 +6359,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>194</v>
-      </c>
-      <c r="G199" t="s">
-        <v>195</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6812,13 +6383,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>20</v>
-      </c>
-      <c r="G200" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6838,13 +6407,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>194</v>
-      </c>
-      <c r="G201" t="s">
-        <v>195</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6864,13 +6431,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>20</v>
-      </c>
-      <c r="G202" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6890,13 +6455,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>194</v>
-      </c>
-      <c r="G203" t="s">
-        <v>195</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6916,13 +6479,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>20</v>
-      </c>
-      <c r="G204" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6942,13 +6503,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>194</v>
-      </c>
-      <c r="G205" t="s">
-        <v>195</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6968,13 +6527,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>20</v>
-      </c>
-      <c r="G206" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6994,13 +6551,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>194</v>
-      </c>
-      <c r="G207" t="s">
-        <v>195</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7020,13 +6575,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>20</v>
-      </c>
-      <c r="G208" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7046,13 +6599,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>194</v>
-      </c>
-      <c r="G209" t="s">
-        <v>195</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7072,13 +6623,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>20</v>
-      </c>
-      <c r="G210" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7098,13 +6647,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>194</v>
-      </c>
-      <c r="G211" t="s">
-        <v>195</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7124,13 +6671,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>20</v>
-      </c>
-      <c r="G212" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7150,13 +6695,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>194</v>
-      </c>
-      <c r="G213" t="s">
-        <v>195</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7178,11 +6721,9 @@
       <c r="F214" t="s">
         <v>11</v>
       </c>
-      <c r="G214" t="s">
-        <v>12</v>
-      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7202,13 +6743,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>232</v>
-      </c>
-      <c r="G215" t="s">
-        <v>233</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7228,13 +6767,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>20</v>
-      </c>
-      <c r="G216" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7254,13 +6791,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>232</v>
-      </c>
-      <c r="G217" t="s">
-        <v>233</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7280,13 +6815,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>20</v>
-      </c>
-      <c r="G218" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7306,13 +6839,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>232</v>
-      </c>
-      <c r="G219" t="s">
-        <v>233</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7332,13 +6863,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>20</v>
-      </c>
-      <c r="G220" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7358,13 +6887,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>232</v>
-      </c>
-      <c r="G221" t="s">
-        <v>233</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7384,13 +6911,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>20</v>
-      </c>
-      <c r="G222" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7410,13 +6935,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
+        <v>223</v>
+      </c>
+      <c r="G223" t="s"/>
+      <c r="H223" t="s">
         <v>232</v>
-      </c>
-      <c r="G223" t="s">
-        <v>233</v>
-      </c>
-      <c r="H223" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7436,13 +6959,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>20</v>
-      </c>
-      <c r="G224" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7462,13 +6983,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>232</v>
-      </c>
-      <c r="G225" t="s">
-        <v>233</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7488,13 +7007,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>20</v>
-      </c>
-      <c r="G226" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7514,13 +7031,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>232</v>
-      </c>
-      <c r="G227" t="s">
-        <v>233</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7540,13 +7055,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>20</v>
-      </c>
-      <c r="G228" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7566,13 +7079,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>232</v>
-      </c>
-      <c r="G229" t="s">
-        <v>233</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7592,13 +7103,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>20</v>
-      </c>
-      <c r="G230" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7618,13 +7127,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>232</v>
-      </c>
-      <c r="G231" t="s">
-        <v>233</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7644,13 +7151,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>20</v>
-      </c>
-      <c r="G232" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7670,13 +7175,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>232</v>
-      </c>
-      <c r="G233" t="s">
-        <v>233</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7696,13 +7199,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>20</v>
-      </c>
-      <c r="G234" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7722,13 +7223,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>232</v>
-      </c>
-      <c r="G235" t="s">
-        <v>233</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7748,13 +7247,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>20</v>
-      </c>
-      <c r="G236" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7774,13 +7271,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>20</v>
-      </c>
-      <c r="G237" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7800,13 +7295,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>20</v>
-      </c>
-      <c r="G238" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7826,13 +7319,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>232</v>
-      </c>
-      <c r="G239" t="s">
-        <v>233</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7852,13 +7343,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>20</v>
-      </c>
-      <c r="G240" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7878,13 +7367,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>232</v>
-      </c>
-      <c r="G241" t="s">
-        <v>233</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7906,11 +7393,9 @@
       <c r="F242" t="s">
         <v>11</v>
       </c>
-      <c r="G242" t="s">
-        <v>12</v>
-      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7930,13 +7415,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>232</v>
-      </c>
-      <c r="G243" t="s">
-        <v>233</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7956,13 +7439,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>20</v>
-      </c>
-      <c r="G244" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7982,13 +7463,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>232</v>
-      </c>
-      <c r="G245" t="s">
-        <v>233</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8010,11 +7489,9 @@
       <c r="F246" t="s">
         <v>11</v>
       </c>
-      <c r="G246" t="s">
-        <v>12</v>
-      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8034,13 +7511,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>20</v>
-      </c>
-      <c r="G247" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8060,13 +7535,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>20</v>
-      </c>
-      <c r="G248" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8088,11 +7561,9 @@
       <c r="F249" t="s">
         <v>11</v>
       </c>
-      <c r="G249" t="s">
-        <v>12</v>
-      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8112,13 +7583,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>20</v>
-      </c>
-      <c r="G250" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8140,11 +7609,9 @@
       <c r="F251" t="s">
         <v>11</v>
       </c>
-      <c r="G251" t="s">
-        <v>12</v>
-      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8164,13 +7631,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>20</v>
-      </c>
-      <c r="G252" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8192,11 +7657,9 @@
       <c r="F253" t="s">
         <v>11</v>
       </c>
-      <c r="G253" t="s">
-        <v>12</v>
-      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8216,13 +7679,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>20</v>
-      </c>
-      <c r="G254" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8244,11 +7705,9 @@
       <c r="F255" t="s">
         <v>11</v>
       </c>
-      <c r="G255" t="s">
-        <v>12</v>
-      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8268,13 +7727,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>20</v>
-      </c>
-      <c r="G256" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8296,11 +7753,9 @@
       <c r="F257" t="s">
         <v>11</v>
       </c>
-      <c r="G257" t="s">
-        <v>12</v>
-      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8320,13 +7775,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>20</v>
-      </c>
-      <c r="G258" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8348,11 +7801,9 @@
       <c r="F259" t="s">
         <v>11</v>
       </c>
-      <c r="G259" t="s">
-        <v>12</v>
-      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8372,13 +7823,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>20</v>
-      </c>
-      <c r="G260" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8400,11 +7849,9 @@
       <c r="F261" t="s">
         <v>11</v>
       </c>
-      <c r="G261" t="s">
-        <v>12</v>
-      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8424,13 +7871,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>20</v>
-      </c>
-      <c r="G262" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8452,11 +7897,9 @@
       <c r="F263" t="s">
         <v>11</v>
       </c>
-      <c r="G263" t="s">
-        <v>12</v>
-      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8476,13 +7919,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>20</v>
-      </c>
-      <c r="G264" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8502,13 +7943,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>20</v>
-      </c>
-      <c r="G265" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8528,13 +7967,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>20</v>
-      </c>
-      <c r="G266" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8556,11 +7993,9 @@
       <c r="F267" t="s">
         <v>11</v>
       </c>
-      <c r="G267" t="s">
-        <v>12</v>
-      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8580,13 +8015,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>20</v>
-      </c>
-      <c r="G268" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8608,11 +8041,9 @@
       <c r="F269" t="s">
         <v>11</v>
       </c>
-      <c r="G269" t="s">
-        <v>12</v>
-      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8632,13 +8063,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>20</v>
-      </c>
-      <c r="G270" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8658,13 +8087,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>20</v>
-      </c>
-      <c r="G271" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8686,11 +8113,9 @@
       <c r="F272" t="s">
         <v>11</v>
       </c>
-      <c r="G272" t="s">
-        <v>12</v>
-      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8710,13 +8135,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>20</v>
-      </c>
-      <c r="G273" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8738,11 +8161,9 @@
       <c r="F274" t="s">
         <v>11</v>
       </c>
-      <c r="G274" t="s">
-        <v>12</v>
-      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8762,13 +8183,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>20</v>
-      </c>
-      <c r="G275" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8790,11 +8209,9 @@
       <c r="F276" t="s">
         <v>11</v>
       </c>
-      <c r="G276" t="s">
-        <v>12</v>
-      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8814,13 +8231,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>20</v>
-      </c>
-      <c r="G277" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8842,11 +8257,9 @@
       <c r="F278" t="s">
         <v>11</v>
       </c>
-      <c r="G278" t="s">
-        <v>12</v>
-      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8866,13 +8279,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>20</v>
-      </c>
-      <c r="G279" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8894,11 +8305,9 @@
       <c r="F280" t="s">
         <v>11</v>
       </c>
-      <c r="G280" t="s">
-        <v>12</v>
-      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8918,13 +8327,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>20</v>
-      </c>
-      <c r="G281" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8946,11 +8353,9 @@
       <c r="F282" t="s">
         <v>11</v>
       </c>
-      <c r="G282" t="s">
-        <v>12</v>
-      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8970,13 +8375,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>20</v>
-      </c>
-      <c r="G283" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8998,11 +8401,9 @@
       <c r="F284" t="s">
         <v>11</v>
       </c>
-      <c r="G284" t="s">
-        <v>12</v>
-      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9022,13 +8423,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>20</v>
-      </c>
-      <c r="G285" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9050,11 +8449,9 @@
       <c r="F286" t="s">
         <v>11</v>
       </c>
-      <c r="G286" t="s">
-        <v>12</v>
-      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9074,13 +8471,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>20</v>
-      </c>
-      <c r="G287" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9102,11 +8497,9 @@
       <c r="F288" t="s">
         <v>11</v>
       </c>
-      <c r="G288" t="s">
-        <v>12</v>
-      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9126,13 +8519,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>20</v>
-      </c>
-      <c r="G289" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9154,11 +8545,9 @@
       <c r="F290" t="s">
         <v>11</v>
       </c>
-      <c r="G290" t="s">
-        <v>12</v>
-      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9178,13 +8567,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>20</v>
-      </c>
-      <c r="G291" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9206,11 +8593,9 @@
       <c r="F292" t="s">
         <v>11</v>
       </c>
-      <c r="G292" t="s">
-        <v>12</v>
-      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9230,13 +8615,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>20</v>
-      </c>
-      <c r="G293" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9258,11 +8641,9 @@
       <c r="F294" t="s">
         <v>11</v>
       </c>
-      <c r="G294" t="s">
-        <v>12</v>
-      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9282,13 +8663,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>20</v>
-      </c>
-      <c r="G295" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9310,11 +8689,9 @@
       <c r="F296" t="s">
         <v>11</v>
       </c>
-      <c r="G296" t="s">
-        <v>12</v>
-      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9334,13 +8711,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>20</v>
-      </c>
-      <c r="G297" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9362,11 +8737,9 @@
       <c r="F298" t="s">
         <v>11</v>
       </c>
-      <c r="G298" t="s">
-        <v>12</v>
-      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9386,13 +8759,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>20</v>
-      </c>
-      <c r="G299" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9414,11 +8785,9 @@
       <c r="F300" t="s">
         <v>11</v>
       </c>
-      <c r="G300" t="s">
-        <v>12</v>
-      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9438,13 +8807,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>20</v>
-      </c>
-      <c r="G301" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9466,11 +8833,9 @@
       <c r="F302" t="s">
         <v>11</v>
       </c>
-      <c r="G302" t="s">
-        <v>12</v>
-      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9490,13 +8855,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>20</v>
-      </c>
-      <c r="G303" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9518,11 +8881,9 @@
       <c r="F304" t="s">
         <v>11</v>
       </c>
-      <c r="G304" t="s">
-        <v>12</v>
-      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9542,13 +8903,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>20</v>
-      </c>
-      <c r="G305" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9570,11 +8929,9 @@
       <c r="F306" t="s">
         <v>11</v>
       </c>
-      <c r="G306" t="s">
-        <v>12</v>
-      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9594,13 +8951,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>20</v>
-      </c>
-      <c r="G307" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9622,11 +8977,9 @@
       <c r="F308" t="s">
         <v>11</v>
       </c>
-      <c r="G308" t="s">
-        <v>12</v>
-      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9646,13 +8999,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>318</v>
-      </c>
-      <c r="G309" t="s">
-        <v>319</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9674,11 +9025,9 @@
       <c r="F310" t="s">
         <v>11</v>
       </c>
-      <c r="G310" t="s">
-        <v>12</v>
-      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9698,13 +9047,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>14</v>
-      </c>
-      <c r="G311" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9724,13 +9071,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>20</v>
-      </c>
-      <c r="G312" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9750,13 +9095,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>14</v>
-      </c>
-      <c r="G313" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9776,13 +9119,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>20</v>
-      </c>
-      <c r="G314" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9802,13 +9143,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>14</v>
-      </c>
-      <c r="G315" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9828,13 +9167,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>20</v>
-      </c>
-      <c r="G316" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9854,13 +9191,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>14</v>
-      </c>
-      <c r="G317" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9880,13 +9215,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>20</v>
-      </c>
-      <c r="G318" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9908,11 +9241,9 @@
       <c r="F319" t="s">
         <v>11</v>
       </c>
-      <c r="G319" t="s">
-        <v>12</v>
-      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9932,13 +9263,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>20</v>
-      </c>
-      <c r="G320" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9958,13 +9287,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>14</v>
-      </c>
-      <c r="G321" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9986,11 +9313,9 @@
       <c r="F322" t="s">
         <v>11</v>
       </c>
-      <c r="G322" t="s">
-        <v>12</v>
-      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10010,13 +9335,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>318</v>
-      </c>
-      <c r="G323" t="s">
-        <v>319</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10036,13 +9359,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>20</v>
-      </c>
-      <c r="G324" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10062,13 +9383,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>318</v>
-      </c>
-      <c r="G325" t="s">
-        <v>319</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10088,13 +9407,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>20</v>
-      </c>
-      <c r="G326" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10114,13 +9431,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>318</v>
-      </c>
-      <c r="G327" t="s">
-        <v>319</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10140,13 +9455,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>20</v>
-      </c>
-      <c r="G328" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10166,13 +9479,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>318</v>
-      </c>
-      <c r="G329" t="s">
-        <v>319</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10192,13 +9503,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>20</v>
-      </c>
-      <c r="G330" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10218,13 +9527,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>318</v>
-      </c>
-      <c r="G331" t="s">
-        <v>319</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10244,13 +9551,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>20</v>
-      </c>
-      <c r="G332" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10270,13 +9575,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>318</v>
-      </c>
-      <c r="G333" t="s">
-        <v>319</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10296,13 +9599,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>20</v>
-      </c>
-      <c r="G334" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10322,13 +9623,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>318</v>
-      </c>
-      <c r="G335" t="s">
-        <v>319</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10350,11 +9649,9 @@
       <c r="F336" t="s">
         <v>11</v>
       </c>
-      <c r="G336" t="s">
-        <v>12</v>
-      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10374,13 +9671,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>318</v>
-      </c>
-      <c r="G337" t="s">
-        <v>319</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10400,13 +9695,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>20</v>
-      </c>
-      <c r="G338" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10426,13 +9719,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>318</v>
-      </c>
-      <c r="G339" t="s">
-        <v>319</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10452,13 +9743,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>20</v>
-      </c>
-      <c r="G340" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10478,13 +9767,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>318</v>
-      </c>
-      <c r="G341" t="s">
-        <v>319</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10504,13 +9791,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>20</v>
-      </c>
-      <c r="G342" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10530,13 +9815,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>318</v>
-      </c>
-      <c r="G343" t="s">
-        <v>319</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10556,13 +9839,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>20</v>
-      </c>
-      <c r="G344" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10582,13 +9863,11 @@
         <v>10</v>
       </c>
       <c r="F345" t="s">
-        <v>318</v>
-      </c>
-      <c r="G345" t="s">
-        <v>319</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10608,13 +9887,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>20</v>
-      </c>
-      <c r="G346" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10634,13 +9911,11 @@
         <v>10</v>
       </c>
       <c r="F347" t="s">
-        <v>318</v>
-      </c>
-      <c r="G347" t="s">
-        <v>319</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10660,13 +9935,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>318</v>
-      </c>
-      <c r="G348" t="s">
-        <v>319</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10686,13 +9959,11 @@
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>318</v>
-      </c>
-      <c r="G349" t="s">
-        <v>319</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10714,11 +9985,9 @@
       <c r="F350" t="s">
         <v>11</v>
       </c>
-      <c r="G350" t="s">
-        <v>12</v>
-      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10738,13 +10007,11 @@
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>318</v>
-      </c>
-      <c r="G351" t="s">
-        <v>319</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10764,13 +10031,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>20</v>
-      </c>
-      <c r="G352" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10792,11 +10057,9 @@
       <c r="F353" t="s">
         <v>11</v>
       </c>
-      <c r="G353" t="s">
-        <v>12</v>
-      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10816,13 +10079,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>20</v>
-      </c>
-      <c r="G354" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10844,11 +10105,9 @@
       <c r="F355" t="s">
         <v>11</v>
       </c>
-      <c r="G355" t="s">
-        <v>12</v>
-      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10868,13 +10127,11 @@
         <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>20</v>
-      </c>
-      <c r="G356" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10896,11 +10153,9 @@
       <c r="F357" t="s">
         <v>11</v>
       </c>
-      <c r="G357" t="s">
-        <v>12</v>
-      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -10920,13 +10175,11 @@
         <v>10</v>
       </c>
       <c r="F358" t="s">
-        <v>20</v>
-      </c>
-      <c r="G358" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10948,11 +10201,9 @@
       <c r="F359" t="s">
         <v>11</v>
       </c>
-      <c r="G359" t="s">
-        <v>12</v>
-      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -10972,13 +10223,11 @@
         <v>10</v>
       </c>
       <c r="F360" t="s">
-        <v>82</v>
-      </c>
-      <c r="G360" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -10998,13 +10247,11 @@
         <v>10</v>
       </c>
       <c r="F361" t="s">
-        <v>20</v>
-      </c>
-      <c r="G361" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11024,13 +10271,11 @@
         <v>10</v>
       </c>
       <c r="F362" t="s">
-        <v>82</v>
-      </c>
-      <c r="G362" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11050,13 +10295,11 @@
         <v>10</v>
       </c>
       <c r="F363" t="s">
-        <v>20</v>
-      </c>
-      <c r="G363" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11076,13 +10319,11 @@
         <v>10</v>
       </c>
       <c r="F364" t="s">
-        <v>82</v>
-      </c>
-      <c r="G364" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11102,13 +10343,11 @@
         <v>10</v>
       </c>
       <c r="F365" t="s">
-        <v>20</v>
-      </c>
-      <c r="G365" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11128,13 +10367,11 @@
         <v>10</v>
       </c>
       <c r="F366" t="s">
-        <v>82</v>
-      </c>
-      <c r="G366" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11154,13 +10391,11 @@
         <v>10</v>
       </c>
       <c r="F367" t="s">
-        <v>20</v>
-      </c>
-      <c r="G367" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G367" t="s"/>
       <c r="H367" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11180,13 +10415,11 @@
         <v>10</v>
       </c>
       <c r="F368" t="s">
-        <v>82</v>
-      </c>
-      <c r="G368" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11206,13 +10439,11 @@
         <v>10</v>
       </c>
       <c r="F369" t="s">
-        <v>20</v>
-      </c>
-      <c r="G369" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11232,13 +10463,11 @@
         <v>10</v>
       </c>
       <c r="F370" t="s">
-        <v>82</v>
-      </c>
-      <c r="G370" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11258,13 +10487,11 @@
         <v>10</v>
       </c>
       <c r="F371" t="s">
-        <v>20</v>
-      </c>
-      <c r="G371" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11284,13 +10511,11 @@
         <v>10</v>
       </c>
       <c r="F372" t="s">
-        <v>82</v>
-      </c>
-      <c r="G372" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G372" t="s"/>
       <c r="H372" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11312,11 +10537,9 @@
       <c r="F373" t="s">
         <v>11</v>
       </c>
-      <c r="G373" t="s">
-        <v>12</v>
-      </c>
+      <c r="G373" t="s"/>
       <c r="H373" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11336,13 +10559,11 @@
         <v>10</v>
       </c>
       <c r="F374" t="s">
-        <v>129</v>
-      </c>
-      <c r="G374" t="s">
-        <v>130</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G374" t="s"/>
       <c r="H374" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11362,13 +10583,11 @@
         <v>10</v>
       </c>
       <c r="F375" t="s">
-        <v>20</v>
-      </c>
-      <c r="G375" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G375" t="s"/>
       <c r="H375" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11388,13 +10607,11 @@
         <v>10</v>
       </c>
       <c r="F376" t="s">
-        <v>129</v>
-      </c>
-      <c r="G376" t="s">
-        <v>130</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G376" t="s"/>
       <c r="H376" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11414,13 +10631,11 @@
         <v>10</v>
       </c>
       <c r="F377" t="s">
-        <v>20</v>
-      </c>
-      <c r="G377" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G377" t="s"/>
       <c r="H377" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11440,13 +10655,11 @@
         <v>10</v>
       </c>
       <c r="F378" t="s">
-        <v>129</v>
-      </c>
-      <c r="G378" t="s">
-        <v>130</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G378" t="s"/>
       <c r="H378" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11466,13 +10679,11 @@
         <v>10</v>
       </c>
       <c r="F379" t="s">
-        <v>20</v>
-      </c>
-      <c r="G379" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G379" t="s"/>
       <c r="H379" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11492,13 +10703,11 @@
         <v>10</v>
       </c>
       <c r="F380" t="s">
-        <v>129</v>
-      </c>
-      <c r="G380" t="s">
-        <v>130</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G380" t="s"/>
       <c r="H380" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11518,13 +10727,11 @@
         <v>10</v>
       </c>
       <c r="F381" t="s">
-        <v>20</v>
-      </c>
-      <c r="G381" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G381" t="s"/>
       <c r="H381" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11544,13 +10751,11 @@
         <v>10</v>
       </c>
       <c r="F382" t="s">
-        <v>129</v>
-      </c>
-      <c r="G382" t="s">
-        <v>130</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G382" t="s"/>
       <c r="H382" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11570,13 +10775,11 @@
         <v>10</v>
       </c>
       <c r="F383" t="s">
-        <v>20</v>
-      </c>
-      <c r="G383" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G383" t="s"/>
       <c r="H383" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11596,13 +10799,11 @@
         <v>10</v>
       </c>
       <c r="F384" t="s">
-        <v>129</v>
-      </c>
-      <c r="G384" t="s">
-        <v>130</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G384" t="s"/>
       <c r="H384" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -11622,13 +10823,11 @@
         <v>10</v>
       </c>
       <c r="F385" t="s">
-        <v>20</v>
-      </c>
-      <c r="G385" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G385" t="s"/>
       <c r="H385" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11648,13 +10847,11 @@
         <v>10</v>
       </c>
       <c r="F386" t="s">
-        <v>129</v>
-      </c>
-      <c r="G386" t="s">
-        <v>130</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G386" t="s"/>
       <c r="H386" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11674,13 +10871,11 @@
         <v>10</v>
       </c>
       <c r="F387" t="s">
-        <v>20</v>
-      </c>
-      <c r="G387" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G387" t="s"/>
       <c r="H387" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11700,13 +10895,11 @@
         <v>10</v>
       </c>
       <c r="F388" t="s">
-        <v>129</v>
-      </c>
-      <c r="G388" t="s">
-        <v>130</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G388" t="s"/>
       <c r="H388" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11726,13 +10919,11 @@
         <v>10</v>
       </c>
       <c r="F389" t="s">
-        <v>20</v>
-      </c>
-      <c r="G389" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G389" t="s"/>
       <c r="H389" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11752,13 +10943,11 @@
         <v>10</v>
       </c>
       <c r="F390" t="s">
-        <v>129</v>
-      </c>
-      <c r="G390" t="s">
-        <v>130</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G390" t="s"/>
       <c r="H390" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11778,13 +10967,11 @@
         <v>10</v>
       </c>
       <c r="F391" t="s">
-        <v>20</v>
-      </c>
-      <c r="G391" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G391" t="s"/>
       <c r="H391" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -11806,11 +10993,9 @@
       <c r="F392" t="s">
         <v>11</v>
       </c>
-      <c r="G392" t="s">
-        <v>12</v>
-      </c>
+      <c r="G392" t="s"/>
       <c r="H392" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -11830,13 +11015,11 @@
         <v>10</v>
       </c>
       <c r="F393" t="s">
-        <v>232</v>
-      </c>
-      <c r="G393" t="s">
-        <v>233</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G393" t="s"/>
       <c r="H393" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -11856,13 +11039,11 @@
         <v>10</v>
       </c>
       <c r="F394" t="s">
-        <v>20</v>
-      </c>
-      <c r="G394" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G394" t="s"/>
       <c r="H394" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -11882,13 +11063,11 @@
         <v>10</v>
       </c>
       <c r="F395" t="s">
-        <v>232</v>
-      </c>
-      <c r="G395" t="s">
-        <v>233</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G395" t="s"/>
       <c r="H395" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -11908,13 +11087,11 @@
         <v>10</v>
       </c>
       <c r="F396" t="s">
-        <v>20</v>
-      </c>
-      <c r="G396" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G396" t="s"/>
       <c r="H396" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -11934,13 +11111,11 @@
         <v>10</v>
       </c>
       <c r="F397" t="s">
-        <v>232</v>
-      </c>
-      <c r="G397" t="s">
-        <v>233</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G397" t="s"/>
       <c r="H397" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -11960,13 +11135,11 @@
         <v>10</v>
       </c>
       <c r="F398" t="s">
-        <v>20</v>
-      </c>
-      <c r="G398" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G398" t="s"/>
       <c r="H398" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -11986,13 +11159,11 @@
         <v>10</v>
       </c>
       <c r="F399" t="s">
-        <v>232</v>
-      </c>
-      <c r="G399" t="s">
-        <v>233</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G399" t="s"/>
       <c r="H399" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12012,13 +11183,11 @@
         <v>10</v>
       </c>
       <c r="F400" t="s">
-        <v>20</v>
-      </c>
-      <c r="G400" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G400" t="s"/>
       <c r="H400" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12038,13 +11207,11 @@
         <v>10</v>
       </c>
       <c r="F401" t="s">
-        <v>232</v>
-      </c>
-      <c r="G401" t="s">
-        <v>233</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G401" t="s"/>
       <c r="H401" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12064,13 +11231,11 @@
         <v>10</v>
       </c>
       <c r="F402" t="s">
-        <v>20</v>
-      </c>
-      <c r="G402" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G402" t="s"/>
       <c r="H402" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12090,13 +11255,11 @@
         <v>10</v>
       </c>
       <c r="F403" t="s">
-        <v>232</v>
-      </c>
-      <c r="G403" t="s">
-        <v>233</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G403" t="s"/>
       <c r="H403" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12118,11 +11281,9 @@
       <c r="F404" t="s">
         <v>11</v>
       </c>
-      <c r="G404" t="s">
-        <v>12</v>
-      </c>
+      <c r="G404" t="s"/>
       <c r="H404" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12142,13 +11303,11 @@
         <v>10</v>
       </c>
       <c r="F405" t="s">
-        <v>20</v>
-      </c>
-      <c r="G405" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G405" t="s"/>
       <c r="H405" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12170,11 +11329,9 @@
       <c r="F406" t="s">
         <v>11</v>
       </c>
-      <c r="G406" t="s">
-        <v>12</v>
-      </c>
+      <c r="G406" t="s"/>
       <c r="H406" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12194,13 +11351,11 @@
         <v>10</v>
       </c>
       <c r="F407" t="s">
-        <v>20</v>
-      </c>
-      <c r="G407" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G407" t="s"/>
       <c r="H407" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12222,11 +11377,9 @@
       <c r="F408" t="s">
         <v>11</v>
       </c>
-      <c r="G408" t="s">
-        <v>12</v>
-      </c>
+      <c r="G408" t="s"/>
       <c r="H408" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12246,13 +11399,11 @@
         <v>10</v>
       </c>
       <c r="F409" t="s">
-        <v>20</v>
-      </c>
-      <c r="G409" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G409" t="s"/>
       <c r="H409" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12274,11 +11425,9 @@
       <c r="F410" t="s">
         <v>11</v>
       </c>
-      <c r="G410" t="s">
-        <v>12</v>
-      </c>
+      <c r="G410" t="s"/>
       <c r="H410" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12298,13 +11447,11 @@
         <v>10</v>
       </c>
       <c r="F411" t="s">
-        <v>20</v>
-      </c>
-      <c r="G411" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G411" t="s"/>
       <c r="H411" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12326,11 +11473,9 @@
       <c r="F412" t="s">
         <v>11</v>
       </c>
-      <c r="G412" t="s">
-        <v>12</v>
-      </c>
+      <c r="G412" t="s"/>
       <c r="H412" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12350,13 +11495,11 @@
         <v>10</v>
       </c>
       <c r="F413" t="s">
-        <v>20</v>
-      </c>
-      <c r="G413" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G413" t="s"/>
       <c r="H413" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12378,11 +11521,9 @@
       <c r="F414" t="s">
         <v>11</v>
       </c>
-      <c r="G414" t="s">
-        <v>12</v>
-      </c>
+      <c r="G414" t="s"/>
       <c r="H414" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12402,13 +11543,11 @@
         <v>10</v>
       </c>
       <c r="F415" t="s">
-        <v>20</v>
-      </c>
-      <c r="G415" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G415" t="s"/>
       <c r="H415" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12430,11 +11569,9 @@
       <c r="F416" t="s">
         <v>11</v>
       </c>
-      <c r="G416" t="s">
-        <v>12</v>
-      </c>
+      <c r="G416" t="s"/>
       <c r="H416" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
